--- a/projects/MLB_HOF_Predict/Data/myHOF.xlsx
+++ b/projects/MLB_HOF_Predict/Data/myHOF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="179">
   <si>
     <t>playerID</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>IBB</t>
+  </si>
+  <si>
+    <t>AllStarStarts</t>
+  </si>
+  <si>
+    <t>AllStarGames</t>
   </si>
   <si>
     <t>percentOfVotes</t>
@@ -902,13 +908,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,19 +966,25 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E2">
         <v>1982</v>
@@ -1014,21 +1026,27 @@
         <v>293</v>
       </c>
       <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>25</v>
+      </c>
+      <c r="T2">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E3">
         <v>2011</v>
@@ -1070,21 +1088,27 @@
         <v>62</v>
       </c>
       <c r="R3">
+        <v>9</v>
+      </c>
+      <c r="S3">
+        <v>12</v>
+      </c>
+      <c r="T3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E4">
         <v>1984</v>
@@ -1126,21 +1150,27 @@
         <v>22</v>
       </c>
       <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>13</v>
+      </c>
+      <c r="T4">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E5">
         <v>2017</v>
@@ -1182,21 +1212,27 @@
         <v>155</v>
       </c>
       <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E6">
         <v>1977</v>
@@ -1238,21 +1274,27 @@
         <v>198</v>
       </c>
       <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>14</v>
+      </c>
+      <c r="T6">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E7">
         <v>1989</v>
@@ -1294,21 +1336,27 @@
         <v>135</v>
       </c>
       <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>14</v>
+      </c>
+      <c r="T7">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>1972</v>
@@ -1350,21 +1398,27 @@
         <v>49</v>
       </c>
       <c r="R8">
+        <v>11</v>
+      </c>
+      <c r="S8">
+        <v>18</v>
+      </c>
+      <c r="T8">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E9">
         <v>2015</v>
@@ -1406,21 +1460,27 @@
         <v>68</v>
       </c>
       <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E10">
         <v>2005</v>
@@ -1462,21 +1522,27 @@
         <v>180</v>
       </c>
       <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10">
+        <v>12</v>
+      </c>
+      <c r="T10">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E11">
         <v>1970</v>
@@ -1518,21 +1584,27 @@
         <v>0</v>
       </c>
       <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E12">
         <v>1999</v>
@@ -1574,21 +1646,27 @@
         <v>229</v>
       </c>
       <c r="R12">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E13">
         <v>1985</v>
@@ -1630,21 +1708,27 @@
         <v>124</v>
       </c>
       <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E14">
         <v>1969</v>
@@ -1686,21 +1770,27 @@
         <v>30</v>
       </c>
       <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E15">
         <v>1991</v>
@@ -1742,21 +1832,27 @@
         <v>144</v>
       </c>
       <c r="R15">
+        <v>15</v>
+      </c>
+      <c r="S15">
+        <v>18</v>
+      </c>
+      <c r="T15">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E16">
         <v>2003</v>
@@ -1798,21 +1894,27 @@
         <v>106</v>
       </c>
       <c r="R16">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <v>11</v>
+      </c>
+      <c r="T16">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E17">
         <v>2010</v>
@@ -1854,21 +1956,27 @@
         <v>143</v>
       </c>
       <c r="R17">
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <v>8</v>
+      </c>
+      <c r="T17">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E18">
         <v>2000</v>
@@ -1910,21 +2018,27 @@
         <v>105</v>
       </c>
       <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>11</v>
+      </c>
+      <c r="T18">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E19">
         <v>2016</v>
@@ -1966,21 +2080,27 @@
         <v>246</v>
       </c>
       <c r="R19">
+        <v>9</v>
+      </c>
+      <c r="S19">
+        <v>13</v>
+      </c>
+      <c r="T19">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E20">
         <v>2018</v>
@@ -2022,21 +2142,27 @@
         <v>250</v>
       </c>
       <c r="R20">
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>9</v>
+      </c>
+      <c r="T20">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
-        <v>263</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E21">
         <v>2007</v>
@@ -2078,21 +2204,27 @@
         <v>203</v>
       </c>
       <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>15</v>
+      </c>
+      <c r="T21">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E22">
         <v>2009</v>
@@ -2134,21 +2266,27 @@
         <v>61</v>
       </c>
       <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="T22">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
-        <v>317</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E23">
         <v>1993</v>
@@ -2190,21 +2328,27 @@
         <v>164</v>
       </c>
       <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>14</v>
+      </c>
+      <c r="T23">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
-        <v>378</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E24">
         <v>2018</v>
@@ -2246,21 +2390,27 @@
         <v>177</v>
       </c>
       <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
-        <v>379</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E25">
         <v>1980</v>
@@ -2302,21 +2452,27 @@
         <v>131</v>
       </c>
       <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>18</v>
+      </c>
+      <c r="T25">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
-        <v>381</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E26">
         <v>1984</v>
@@ -2358,21 +2514,27 @@
         <v>160</v>
       </c>
       <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>13</v>
+      </c>
+      <c r="T26">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E27">
         <v>1975</v>
@@ -2414,21 +2576,27 @@
         <v>1</v>
       </c>
       <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E28">
         <v>2012</v>
@@ -2470,21 +2638,27 @@
         <v>66</v>
       </c>
       <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>12</v>
+      </c>
+      <c r="T28">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
-        <v>452</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E29">
         <v>1974</v>
@@ -2526,21 +2700,27 @@
         <v>126</v>
       </c>
       <c r="R29">
+        <v>13</v>
+      </c>
+      <c r="S29">
+        <v>20</v>
+      </c>
+      <c r="T29">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
-        <v>500</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E30">
         <v>1978</v>
@@ -2582,21 +2762,27 @@
         <v>107</v>
       </c>
       <c r="R30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>12</v>
+      </c>
+      <c r="T30">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
-        <v>501</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E31">
         <v>1979</v>
@@ -2638,21 +2824,27 @@
         <v>192</v>
       </c>
       <c r="R31">
+        <v>18</v>
+      </c>
+      <c r="S31">
+        <v>24</v>
+      </c>
+      <c r="T31">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
-        <v>502</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E32">
         <v>1986</v>
@@ -2694,21 +2886,27 @@
         <v>260</v>
       </c>
       <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
-        <v>503</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E33">
         <v>1968</v>
@@ -2750,21 +2948,27 @@
         <v>0</v>
       </c>
       <c r="R33">
+        <v>8</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="T33">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
-        <v>504</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E34">
         <v>2004</v>
@@ -2806,21 +3010,27 @@
         <v>100</v>
       </c>
       <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>7</v>
+      </c>
+      <c r="T34">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
-        <v>505</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E35">
         <v>1990</v>
@@ -2862,21 +3072,27 @@
         <v>76</v>
       </c>
       <c r="R35">
+        <v>7</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
-        <v>506</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E36">
         <v>2003</v>
@@ -2918,21 +3134,27 @@
         <v>222</v>
       </c>
       <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>8</v>
+      </c>
+      <c r="T36">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
-        <v>507</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E37">
         <v>1969</v>
@@ -2974,21 +3196,27 @@
         <v>127</v>
       </c>
       <c r="R37">
+        <v>14</v>
+      </c>
+      <c r="S37">
+        <v>24</v>
+      </c>
+      <c r="T37">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
-        <v>570</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E38">
         <v>2000</v>
@@ -3030,21 +3258,27 @@
         <v>150</v>
       </c>
       <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>7</v>
+      </c>
+      <c r="T38">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
-        <v>595</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E39">
         <v>2016</v>
@@ -3086,21 +3320,27 @@
         <v>146</v>
       </c>
       <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <v>12</v>
+      </c>
+      <c r="T39">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
-        <v>596</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E40">
         <v>2001</v>
@@ -3142,21 +3382,27 @@
         <v>85</v>
       </c>
       <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>10</v>
+      </c>
+      <c r="T40">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
-        <v>597</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E41">
         <v>2017</v>
@@ -3198,21 +3444,27 @@
         <v>148</v>
       </c>
       <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>7</v>
+      </c>
+      <c r="T41">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E42">
         <v>2009</v>
@@ -3254,21 +3506,27 @@
         <v>77</v>
       </c>
       <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>8</v>
+      </c>
+      <c r="T42">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
-        <v>599</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E43">
         <v>2007</v>
@@ -3310,21 +3568,27 @@
         <v>107</v>
       </c>
       <c r="R43">
+        <v>17</v>
+      </c>
+      <c r="S43">
+        <v>19</v>
+      </c>
+      <c r="T43">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
-        <v>620</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E44">
         <v>1983</v>
@@ -3366,21 +3630,27 @@
         <v>120</v>
       </c>
       <c r="R44">
+        <v>11</v>
+      </c>
+      <c r="S44">
+        <v>18</v>
+      </c>
+      <c r="T44">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
-        <v>621</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E45">
         <v>1982</v>
@@ -3422,21 +3692,27 @@
         <v>218</v>
       </c>
       <c r="R45">
+        <v>6</v>
+      </c>
+      <c r="S45">
+        <v>14</v>
+      </c>
+      <c r="T45">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:20">
       <c r="A46" s="1">
-        <v>623</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E46">
         <v>2017</v>
@@ -3478,21 +3754,27 @@
         <v>67</v>
       </c>
       <c r="R46">
+        <v>12</v>
+      </c>
+      <c r="S46">
+        <v>14</v>
+      </c>
+      <c r="T46">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:20">
       <c r="A47" s="1">
-        <v>655</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E47">
         <v>2005</v>
@@ -3534,21 +3816,27 @@
         <v>59</v>
       </c>
       <c r="R47">
+        <v>9</v>
+      </c>
+      <c r="S47">
+        <v>10</v>
+      </c>
+      <c r="T47">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:20">
       <c r="A48" s="1">
-        <v>656</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E48">
         <v>1995</v>
@@ -3590,21 +3878,27 @@
         <v>201</v>
       </c>
       <c r="R48">
+        <v>7</v>
+      </c>
+      <c r="S48">
+        <v>12</v>
+      </c>
+      <c r="T48">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:20">
       <c r="A49" s="1">
-        <v>681</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E49">
         <v>2002</v>
@@ -3646,21 +3940,27 @@
         <v>79</v>
       </c>
       <c r="R49">
+        <v>11</v>
+      </c>
+      <c r="S49">
+        <v>15</v>
+      </c>
+      <c r="T49">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:20">
       <c r="A50" s="1">
-        <v>701</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E50">
         <v>1980</v>
@@ -3702,21 +4002,27 @@
         <v>104</v>
       </c>
       <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>8</v>
+      </c>
+      <c r="T50">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:20">
       <c r="A51" s="1">
-        <v>724</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E51">
         <v>1988</v>
@@ -3758,21 +4064,27 @@
         <v>227</v>
       </c>
       <c r="R51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>7</v>
+      </c>
+      <c r="T51">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:20">
       <c r="A52" s="1">
-        <v>761</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E52">
         <v>2014</v>
@@ -3814,21 +4126,27 @@
         <v>168</v>
       </c>
       <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>5</v>
+      </c>
+      <c r="T52">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:20">
       <c r="A53" s="1">
-        <v>762</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E53">
         <v>2018</v>
@@ -3870,21 +4188,27 @@
         <v>173</v>
       </c>
       <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>5</v>
+      </c>
+      <c r="T53">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:20">
       <c r="A54" s="1">
-        <v>800</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E54">
         <v>1987</v>
@@ -3926,21 +4250,27 @@
         <v>182</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>6</v>
+      </c>
+      <c r="T54">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:20">
       <c r="A55" s="1">
-        <v>801</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E55">
         <v>1966</v>
@@ -3982,21 +4312,27 @@
         <v>86</v>
       </c>
       <c r="R55">
+        <v>12</v>
+      </c>
+      <c r="S55">
+        <v>19</v>
+      </c>
+      <c r="T55">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:20">
       <c r="A56" s="1">
-        <v>802</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E56">
         <v>2001</v>
@@ -4038,21 +4374,27 @@
         <v>172</v>
       </c>
       <c r="R56">
+        <v>8</v>
+      </c>
+      <c r="S56">
+        <v>12</v>
+      </c>
+      <c r="T56">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:20">
       <c r="A57" s="1">
-        <v>824</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E57">
         <v>1989</v>
@@ -4094,21 +4436,27 @@
         <v>190</v>
       </c>
       <c r="R57">
+        <v>7</v>
+      </c>
+      <c r="S57">
+        <v>18</v>
+      </c>
+      <c r="T57">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:20">
       <c r="A58" s="1">
-        <v>847</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E58">
         <v>1999</v>
@@ -4150,6 +4498,12 @@
         <v>95</v>
       </c>
       <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>3</v>
+      </c>
+      <c r="T58">
         <v>77</v>
       </c>
     </row>

--- a/projects/MLB_HOF_Predict/Data/myHOF.xlsx
+++ b/projects/MLB_HOF_Predict/Data/myHOF.xlsx
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,37 +450,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1930</v>
+        <v>1970</v>
       </c>
       <c r="C2">
-        <v>10911</v>
+        <v>127560</v>
       </c>
       <c r="D2">
-        <v>20612</v>
+        <v>249217</v>
       </c>
       <c r="E2">
-        <v>498</v>
+        <v>24049</v>
       </c>
       <c r="F2">
-        <v>8908</v>
+        <v>117665</v>
       </c>
       <c r="G2">
-        <v>3666</v>
+        <v>10929</v>
       </c>
       <c r="H2">
-        <v>3495</v>
+        <v>39557</v>
       </c>
       <c r="I2">
-        <v>1264</v>
+        <v>8902</v>
       </c>
       <c r="J2">
-        <v>6132</v>
+        <v>90302</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5705</v>
       </c>
       <c r="L2">
-        <v>60197</v>
+        <v>880242</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -488,37 +488,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1940</v>
+        <v>1980</v>
       </c>
       <c r="C3">
-        <v>5335</v>
+        <v>246959</v>
       </c>
       <c r="D3">
-        <v>9878</v>
+        <v>502378</v>
       </c>
       <c r="E3">
-        <v>583</v>
+        <v>50902</v>
       </c>
       <c r="F3">
-        <v>4933</v>
+        <v>232193</v>
       </c>
       <c r="G3">
-        <v>776</v>
+        <v>31650</v>
       </c>
       <c r="H3">
-        <v>1711</v>
+        <v>78135</v>
       </c>
       <c r="I3">
-        <v>535</v>
+        <v>14867</v>
       </c>
       <c r="J3">
-        <v>3095</v>
+        <v>173344</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19287</v>
       </c>
       <c r="L3">
-        <v>30013</v>
+        <v>1799129</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -526,37 +526,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1950</v>
+        <v>1990</v>
       </c>
       <c r="C4">
-        <v>15881</v>
+        <v>249891</v>
       </c>
       <c r="D4">
-        <v>29067</v>
+        <v>503874</v>
       </c>
       <c r="E4">
-        <v>3130</v>
+        <v>55166</v>
       </c>
       <c r="F4">
-        <v>17044</v>
+        <v>251046</v>
       </c>
       <c r="G4">
-        <v>1068</v>
+        <v>33281</v>
       </c>
       <c r="H4">
-        <v>5407</v>
+        <v>84889</v>
       </c>
       <c r="I4">
-        <v>1433</v>
+        <v>13871</v>
       </c>
       <c r="J4">
-        <v>11180</v>
+        <v>182793</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>21636</v>
       </c>
       <c r="L4">
-        <v>92426</v>
+        <v>1792864</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -564,37 +564,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="C5">
-        <v>6519</v>
+        <v>189485</v>
       </c>
       <c r="D5">
-        <v>11434</v>
+        <v>370664</v>
       </c>
       <c r="E5">
-        <v>1580</v>
+        <v>44429</v>
       </c>
       <c r="F5">
-        <v>6763</v>
+        <v>191451</v>
       </c>
       <c r="G5">
-        <v>366</v>
+        <v>31146</v>
       </c>
       <c r="H5">
-        <v>2241</v>
+        <v>65899</v>
       </c>
       <c r="I5">
-        <v>433</v>
+        <v>9088</v>
       </c>
       <c r="J5">
-        <v>5330</v>
+        <v>130177</v>
       </c>
       <c r="K5">
-        <v>250</v>
+        <v>16960</v>
       </c>
       <c r="L5">
-        <v>35395</v>
+        <v>1317197</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -602,189 +602,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1970</v>
+        <v>2010</v>
       </c>
       <c r="C6">
-        <v>9560</v>
+        <v>253203</v>
       </c>
       <c r="D6">
-        <v>15976</v>
+        <v>450585</v>
       </c>
       <c r="E6">
-        <v>3015</v>
+        <v>68882</v>
       </c>
       <c r="F6">
-        <v>9735</v>
+        <v>251958</v>
       </c>
       <c r="G6">
-        <v>712</v>
+        <v>36255</v>
       </c>
       <c r="H6">
-        <v>2550</v>
+        <v>87153</v>
       </c>
       <c r="I6">
-        <v>528</v>
+        <v>8577</v>
       </c>
       <c r="J6">
-        <v>7915</v>
+        <v>198661</v>
       </c>
       <c r="K6">
-        <v>673</v>
+        <v>24068</v>
       </c>
       <c r="L6">
-        <v>55730</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1980</v>
-      </c>
-      <c r="C7">
-        <v>19084</v>
-      </c>
-      <c r="D7">
-        <v>35092</v>
-      </c>
-      <c r="E7">
-        <v>5483</v>
-      </c>
-      <c r="F7">
-        <v>19447</v>
-      </c>
-      <c r="G7">
-        <v>2540</v>
-      </c>
-      <c r="H7">
-        <v>5897</v>
-      </c>
-      <c r="I7">
-        <v>927</v>
-      </c>
-      <c r="J7">
-        <v>15049</v>
-      </c>
-      <c r="K7">
-        <v>2166</v>
-      </c>
-      <c r="L7">
-        <v>124130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1990</v>
-      </c>
-      <c r="C8">
-        <v>9346</v>
-      </c>
-      <c r="D8">
-        <v>16684</v>
-      </c>
-      <c r="E8">
-        <v>2039</v>
-      </c>
-      <c r="F8">
-        <v>8447</v>
-      </c>
-      <c r="G8">
-        <v>1916</v>
-      </c>
-      <c r="H8">
-        <v>3013</v>
-      </c>
-      <c r="I8">
-        <v>579</v>
-      </c>
-      <c r="J8">
-        <v>7827</v>
-      </c>
-      <c r="K8">
-        <v>909</v>
-      </c>
-      <c r="L8">
-        <v>58165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2000</v>
-      </c>
-      <c r="C9">
-        <v>20384</v>
-      </c>
-      <c r="D9">
-        <v>38856</v>
-      </c>
-      <c r="E9">
-        <v>4162</v>
-      </c>
-      <c r="F9">
-        <v>18616</v>
-      </c>
-      <c r="G9">
-        <v>3954</v>
-      </c>
-      <c r="H9">
-        <v>6828</v>
-      </c>
-      <c r="I9">
-        <v>931</v>
-      </c>
-      <c r="J9">
-        <v>14739</v>
-      </c>
-      <c r="K9">
-        <v>1706</v>
-      </c>
-      <c r="L9">
-        <v>133909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2010</v>
-      </c>
-      <c r="C10">
-        <v>19230</v>
-      </c>
-      <c r="D10">
-        <v>33681</v>
-      </c>
-      <c r="E10">
-        <v>5174</v>
-      </c>
-      <c r="F10">
-        <v>18394</v>
-      </c>
-      <c r="G10">
-        <v>3301</v>
-      </c>
-      <c r="H10">
-        <v>6446</v>
-      </c>
-      <c r="I10">
-        <v>673</v>
-      </c>
-      <c r="J10">
-        <v>14698</v>
-      </c>
-      <c r="K10">
-        <v>1869</v>
-      </c>
-      <c r="L10">
-        <v>114546</v>
+        <v>1568214</v>
       </c>
     </row>
   </sheetData>

--- a/projects/MLB_HOF_Predict/Data/myHOF.xlsx
+++ b/projects/MLB_HOF_Predict/Data/myHOF.xlsx
@@ -453,34 +453,34 @@
         <v>1970</v>
       </c>
       <c r="C2">
-        <v>127560</v>
+        <v>233588</v>
       </c>
       <c r="D2">
-        <v>249217</v>
+        <v>460179</v>
       </c>
       <c r="E2">
-        <v>24049</v>
+        <v>40078</v>
       </c>
       <c r="F2">
-        <v>117665</v>
+        <v>214641</v>
       </c>
       <c r="G2">
-        <v>10929</v>
+        <v>19042</v>
       </c>
       <c r="H2">
-        <v>39557</v>
+        <v>74417</v>
       </c>
       <c r="I2">
-        <v>8902</v>
+        <v>16433</v>
       </c>
       <c r="J2">
-        <v>90302</v>
+        <v>168777</v>
       </c>
       <c r="K2">
-        <v>5705</v>
+        <v>7553</v>
       </c>
       <c r="L2">
-        <v>880242</v>
+        <v>1622654</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -491,34 +491,34 @@
         <v>1980</v>
       </c>
       <c r="C3">
-        <v>246959</v>
+        <v>219357</v>
       </c>
       <c r="D3">
-        <v>502378</v>
+        <v>449317</v>
       </c>
       <c r="E3">
-        <v>50902</v>
+        <v>44933</v>
       </c>
       <c r="F3">
-        <v>232193</v>
+        <v>205706</v>
       </c>
       <c r="G3">
-        <v>31650</v>
+        <v>28289</v>
       </c>
       <c r="H3">
-        <v>78135</v>
+        <v>69570</v>
       </c>
       <c r="I3">
-        <v>14867</v>
+        <v>13099</v>
       </c>
       <c r="J3">
-        <v>173344</v>
+        <v>152067</v>
       </c>
       <c r="K3">
-        <v>19287</v>
+        <v>17773</v>
       </c>
       <c r="L3">
-        <v>1799129</v>
+        <v>1611220</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -529,34 +529,34 @@
         <v>1990</v>
       </c>
       <c r="C4">
-        <v>249891</v>
+        <v>222044</v>
       </c>
       <c r="D4">
-        <v>503874</v>
+        <v>448022</v>
       </c>
       <c r="E4">
-        <v>55166</v>
+        <v>48215</v>
       </c>
       <c r="F4">
-        <v>251046</v>
+        <v>219890</v>
       </c>
       <c r="G4">
-        <v>33281</v>
+        <v>30978</v>
       </c>
       <c r="H4">
-        <v>84889</v>
+        <v>75463</v>
       </c>
       <c r="I4">
-        <v>13871</v>
+        <v>12095</v>
       </c>
       <c r="J4">
-        <v>182793</v>
+        <v>163728</v>
       </c>
       <c r="K4">
-        <v>21636</v>
+        <v>19511</v>
       </c>
       <c r="L4">
-        <v>1792864</v>
+        <v>1596787</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -567,34 +567,34 @@
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>189485</v>
+        <v>155036</v>
       </c>
       <c r="D5">
-        <v>370664</v>
+        <v>304330</v>
       </c>
       <c r="E5">
-        <v>44429</v>
+        <v>35166</v>
       </c>
       <c r="F5">
-        <v>191451</v>
+        <v>155001</v>
       </c>
       <c r="G5">
-        <v>31146</v>
+        <v>25005</v>
       </c>
       <c r="H5">
-        <v>65899</v>
+        <v>54875</v>
       </c>
       <c r="I5">
-        <v>9088</v>
+        <v>6819</v>
       </c>
       <c r="J5">
-        <v>130177</v>
+        <v>110521</v>
       </c>
       <c r="K5">
-        <v>16960</v>
+        <v>14281</v>
       </c>
       <c r="L5">
-        <v>1317197</v>
+        <v>1083496</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -605,34 +605,34 @@
         <v>2010</v>
       </c>
       <c r="C6">
-        <v>253203</v>
+        <v>217269</v>
       </c>
       <c r="D6">
-        <v>450585</v>
+        <v>389285</v>
       </c>
       <c r="E6">
-        <v>68882</v>
+        <v>61529</v>
       </c>
       <c r="F6">
-        <v>251958</v>
+        <v>221697</v>
       </c>
       <c r="G6">
-        <v>36255</v>
+        <v>26754</v>
       </c>
       <c r="H6">
-        <v>87153</v>
+        <v>75937</v>
       </c>
       <c r="I6">
-        <v>8577</v>
+        <v>6962</v>
       </c>
       <c r="J6">
-        <v>198661</v>
+        <v>170435</v>
       </c>
       <c r="K6">
-        <v>24068</v>
+        <v>20942</v>
       </c>
       <c r="L6">
-        <v>1568214</v>
+        <v>1360686</v>
       </c>
     </row>
   </sheetData>
